--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
@@ -549,10 +549,10 @@
         <v>0.234979</v>
       </c>
       <c r="I2">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J2">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>0.8539327454077777</v>
+        <v>0.9126277320773334</v>
       </c>
       <c r="R2">
-        <v>7.68539470867</v>
+        <v>8.213649588696001</v>
       </c>
       <c r="S2">
-        <v>0.07402973054762449</v>
+        <v>0.1704595013066428</v>
       </c>
       <c r="T2">
-        <v>0.07402973054762449</v>
+        <v>0.1704595013066427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.234979</v>
       </c>
       <c r="I3">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J3">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
         <v>2.130817717262445</v>
@@ -641,10 +641,10 @@
         <v>19.177359455362</v>
       </c>
       <c r="S3">
-        <v>0.1847263292142706</v>
+        <v>0.3979915497780831</v>
       </c>
       <c r="T3">
-        <v>0.1847263292142706</v>
+        <v>0.397991549778083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.234979</v>
       </c>
       <c r="I4">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J4">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>0.4633956631406667</v>
+        <v>0.6780850880803333</v>
       </c>
       <c r="R4">
-        <v>4.170560968266001</v>
+        <v>6.102765792722999</v>
       </c>
       <c r="S4">
-        <v>0.04017301861736156</v>
+        <v>0.1266519106257557</v>
       </c>
       <c r="T4">
-        <v>0.04017301861736155</v>
+        <v>0.1266519106257556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.234979</v>
       </c>
       <c r="I5">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J5">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>1.330104582301333</v>
+        <v>0.4298940543912222</v>
       </c>
       <c r="R5">
-        <v>11.970941240712</v>
+        <v>3.869046489521</v>
       </c>
       <c r="S5">
-        <v>0.1153103500919236</v>
+        <v>0.08029509026579634</v>
       </c>
       <c r="T5">
-        <v>0.1153103500919236</v>
+        <v>0.08029509026579634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.234979</v>
       </c>
       <c r="I6">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J6">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>0.3084022354105555</v>
+        <v>0.3204806781861111</v>
       </c>
       <c r="R6">
-        <v>2.775620118695</v>
+        <v>2.884326103675</v>
       </c>
       <c r="S6">
-        <v>0.02673622075099842</v>
+        <v>0.05985899251348857</v>
       </c>
       <c r="T6">
-        <v>0.02673622075099842</v>
+        <v>0.05985899251348856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.234979</v>
       </c>
       <c r="I7">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222286</v>
       </c>
       <c r="J7">
-        <v>0.4818055996965379</v>
+        <v>0.9005614640222285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>0.4709733703677779</v>
+        <v>0.3496350971092222</v>
       </c>
       <c r="R7">
-        <v>4.23876033331</v>
+        <v>3.146715873983</v>
       </c>
       <c r="S7">
-        <v>0.04082995047435919</v>
+        <v>0.06530441953246213</v>
       </c>
       <c r="T7">
-        <v>0.04082995047435919</v>
+        <v>0.06530441953246212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H8">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I8">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J8">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>0.9184267828866666</v>
+        <v>0.1007708737226667</v>
       </c>
       <c r="R8">
-        <v>8.26584104598</v>
+        <v>0.9069378635040001</v>
       </c>
       <c r="S8">
-        <v>0.07962089243029781</v>
+        <v>0.01882186161700472</v>
       </c>
       <c r="T8">
-        <v>0.07962089243029781</v>
+        <v>0.01882186161700472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H9">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I9">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J9">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
-        <v>2.291749638958667</v>
+        <v>0.2352814357542222</v>
       </c>
       <c r="R9">
-        <v>20.625746750628</v>
+        <v>2.117532921788</v>
       </c>
       <c r="S9">
-        <v>0.1986779511233163</v>
+        <v>0.04394558130957296</v>
       </c>
       <c r="T9">
-        <v>0.1986779511233163</v>
+        <v>0.04394558130957296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H10">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I10">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J10">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>0.498394036756</v>
+        <v>0.07487305544466667</v>
       </c>
       <c r="R10">
-        <v>4.485546330804</v>
+        <v>0.673857499002</v>
       </c>
       <c r="S10">
-        <v>0.04320712192617773</v>
+        <v>0.01398469851814782</v>
       </c>
       <c r="T10">
-        <v>0.04320712192617773</v>
+        <v>0.01398469851814782</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H11">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I11">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J11">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>1.430561925392</v>
+        <v>0.04746820411711111</v>
       </c>
       <c r="R11">
-        <v>12.875057328528</v>
+        <v>0.427213837054</v>
       </c>
       <c r="S11">
-        <v>0.124019267838111</v>
+        <v>0.008866053613456319</v>
       </c>
       <c r="T11">
-        <v>0.124019267838111</v>
+        <v>0.008866053613456317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H12">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I12">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J12">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>0.3316945912033333</v>
+        <v>0.03538695660555556</v>
       </c>
       <c r="R12">
-        <v>2.98525132083</v>
+        <v>0.31848260945</v>
       </c>
       <c r="S12">
-        <v>0.0287554978339206</v>
+        <v>0.006609532850829115</v>
       </c>
       <c r="T12">
-        <v>0.02875549783392059</v>
+        <v>0.006609532850829114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.084242</v>
+        <v>0.008648666666666667</v>
       </c>
       <c r="H13">
-        <v>0.252726</v>
+        <v>0.025946</v>
       </c>
       <c r="I13">
-        <v>0.5181944003034622</v>
+        <v>0.0994385359777714</v>
       </c>
       <c r="J13">
-        <v>0.5181944003034622</v>
+        <v>0.09943853597777139</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>0.5065440571266667</v>
+        <v>0.03860614024911112</v>
       </c>
       <c r="R13">
-        <v>4.558896514140001</v>
+        <v>0.347455262242</v>
       </c>
       <c r="S13">
-        <v>0.04391366915163867</v>
+        <v>0.007210808068760454</v>
       </c>
       <c r="T13">
-        <v>0.04391366915163867</v>
+        <v>0.007210808068760451</v>
       </c>
     </row>
   </sheetData>
